--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2533291.248310058</v>
+        <v>-2535944.529840521</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>118.0582993376393</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>216.4073926840209</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>69.01518629983603</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>39.20795580462978</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14.56432351326731</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>126.2482088926117</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>54.87175400786737</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>53.18368767881407</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.35653195707</v>
+        <v>82.91254902627638</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>8.302123851715287</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>122.3847716792367</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>84.66722040511706</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>70.28876617274351</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>105.11626575513</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1816,19 +1816,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>285.5970594671152</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>150.3341561773491</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>112.5005260950196</v>
       </c>
       <c r="T19" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>77.39507264402552</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652552</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808248</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2539,7 +2539,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
@@ -2725,13 +2725,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352486</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972048</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652568</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3430,19 +3430,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002294</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1548.692669339133</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="C2" t="n">
-        <v>1548.692669339133</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="D2" t="n">
-        <v>1548.692669339133</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="E2" t="n">
-        <v>1162.904416740889</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="F2" t="n">
-        <v>751.9185119512813</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>336.2137616755701</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X2" t="n">
-        <v>1935.292509403255</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y2" t="n">
-        <v>1935.292509403255</v>
+        <v>652.5759934195828</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>271.0757353741126</v>
+        <v>359.3304604754444</v>
       </c>
       <c r="C4" t="n">
-        <v>271.0757353741126</v>
+        <v>359.3304604754444</v>
       </c>
       <c r="D4" t="n">
-        <v>120.9590959617769</v>
+        <v>359.3304604754444</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>211.4173668930513</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>171.813371130799</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>171.813371130799</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1508.922676748627</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>1285.944195943362</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U4" t="n">
-        <v>996.8258584471997</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V4" t="n">
-        <v>742.1413702413129</v>
+        <v>1279.178225384192</v>
       </c>
       <c r="W4" t="n">
-        <v>452.7242002043523</v>
+        <v>989.7610553472316</v>
       </c>
       <c r="X4" t="n">
-        <v>452.7242002043523</v>
+        <v>761.7715044492143</v>
       </c>
       <c r="Y4" t="n">
-        <v>452.7242002043523</v>
+        <v>540.9789253056841</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3271.884924963905</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3271.884924963905</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3018.354448237741</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2687.29156089417</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2687.29156089417</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X5" t="n">
-        <v>2313.82580263309</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1923.686470657279</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>462.6853918125577</v>
+        <v>758.9852304414014</v>
       </c>
       <c r="C7" t="n">
-        <v>462.6853918125577</v>
+        <v>758.9852304414014</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4756,19 +4756,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W7" t="n">
-        <v>872.3234075408147</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X7" t="n">
-        <v>644.3338566427974</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="Y7" t="n">
-        <v>644.3338566427974</v>
+        <v>940.6336952716412</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1239.503030201924</v>
+        <v>1942.567517572959</v>
       </c>
       <c r="C8" t="n">
-        <v>870.5405132615124</v>
+        <v>1573.605000632547</v>
       </c>
       <c r="D8" t="n">
-        <v>512.2748146547618</v>
+        <v>1215.339302025797</v>
       </c>
       <c r="E8" t="n">
-        <v>126.4865620565176</v>
+        <v>829.5510494275522</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>2742.476615773052</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W8" t="n">
-        <v>2389.707960502938</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X8" t="n">
-        <v>2016.242202241858</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="Y8" t="n">
-        <v>1626.102870266046</v>
+        <v>2329.16735763708</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4893,40 +4893,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>627.5770176220484</v>
+        <v>785.680167749271</v>
       </c>
       <c r="C10" t="n">
-        <v>458.6408346941415</v>
+        <v>616.7439848213642</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>466.6273454090284</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368017</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621301</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621301</v>
+        <v>1416.110762621058</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621301</v>
+        <v>1188.121211723041</v>
       </c>
       <c r="Y10" t="n">
-        <v>809.2254824522881</v>
+        <v>967.3286325795108</v>
       </c>
     </row>
     <row r="11">
@@ -5036,7 +5036,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1057.955258982919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>889.0190760550122</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>738.9024366426764</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>590.9893430602833</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.603723813159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5258,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V16" t="n">
-        <v>1942.37805728168</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W16" t="n">
-        <v>1652.96088724472</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5519,16 +5519,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2266.280484787188</v>
       </c>
       <c r="T19" t="n">
-        <v>2273.199413378161</v>
+        <v>2046.67901981013</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5738,19 +5738,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,34 +5981,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6169,19 +6169,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W25" t="n">
         <v>1483.798285518751</v>
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6415,7 +6415,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
@@ -6424,7 +6424,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6464,16 +6464,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,13 +6616,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311323</v>
@@ -6734,10 +6734,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6789,13 +6789,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6838,13 +6838,13 @@
         <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345475</v>
@@ -6853,16 +6853,16 @@
         <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
         <v>1483.79828551875</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,16 +7023,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7312,16 +7312,16 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,19 +7345,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7570,7 +7570,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7585,16 +7585,16 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7728,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>264.6755423258413</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,16 +22553,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>84.61115987838451</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,22 +22705,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>77.41877634673314</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>132.6871856418616</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>40.30478226780122</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0.5874149221289713</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>68.52575990662497</v>
       </c>
       <c r="T19" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>208.7894017452186</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1113994.317245727</v>
+        <v>1113994.317245726</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1401477.043940446</v>
+        <v>1401477.043940445</v>
       </c>
     </row>
     <row r="6">
@@ -26314,10 +26314,10 @@
         <v>15883.07632636138</v>
       </c>
       <c r="C2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="D2" t="n">
         <v>20526.04424660708</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
         <v>20178.66499225016</v>
@@ -26329,31 +26329,31 @@
         <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="J2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="J2" t="n">
-        <v>20526.0442466071</v>
-      </c>
       <c r="K2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="L2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605454</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551183</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26418,10 +26418,10 @@
         <v>31928.28153540097</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312014</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26436,25 +26436,25 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
+        <v>17938.00358486236</v>
+      </c>
+      <c r="J4" t="n">
+        <v>17938.00358486238</v>
+      </c>
+      <c r="K4" t="n">
         <v>17938.00358486237</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>17938.00358486238</v>
+      </c>
+      <c r="M4" t="n">
         <v>17938.00358486236</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
+        <v>17938.00358486237</v>
+      </c>
+      <c r="O4" t="n">
         <v>17938.00358486236</v>
-      </c>
-      <c r="L4" t="n">
-        <v>17938.00358486239</v>
-      </c>
-      <c r="M4" t="n">
-        <v>17938.00358486239</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17938.0035848624</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17938.00358486237</v>
       </c>
       <c r="P4" t="n">
         <v>17938.00358486237</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1223734.761224804</v>
+        <v>-1224199.058016828</v>
       </c>
       <c r="C6" t="n">
         <v>-379980.8170200124</v>
@@ -26528,19 +26528,19 @@
         <v>-176542.0754079064</v>
       </c>
       <c r="E6" t="n">
-        <v>-416303.4709607807</v>
+        <v>-416338.2088862168</v>
       </c>
       <c r="F6" t="n">
-        <v>-90891.00915342588</v>
+        <v>-90925.74707886158</v>
       </c>
       <c r="G6" t="n">
-        <v>-90891.00915342585</v>
+        <v>-90925.74707886156</v>
       </c>
       <c r="H6" t="n">
-        <v>-90891.00915342585</v>
+        <v>-90925.74707886156</v>
       </c>
       <c r="I6" t="n">
-        <v>-120003.7931858025</v>
+        <v>-120003.7931858024</v>
       </c>
       <c r="J6" t="n">
         <v>-268181.2530021532</v>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="K2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203976</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>106.2130922183015</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>68.4142514691258</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>310.4011377631402</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>56.00407410936176</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>48.25894106114231</v>
+        <v>65.70292399193598</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>398.5739218899961</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>205.3674867908982</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>61.76674224145211</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.2958871793513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="26">
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,16 +32081,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>405.637736314577</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>416.4300581532626</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,16 +33980,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>576.057346513631</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34448,22 +34448,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>535.6747904601048</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,16 +35729,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312436</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2960242312443</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,16 +37628,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>433.4611020691866</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
